--- a/PlayerData.xlsx
+++ b/PlayerData.xlsx
@@ -2,24 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naoto10\Documents\GameMakerStudio2\shooting3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\naoto\GameMaker2\shooting3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11400"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -57,62 +57,123 @@
     <t>MaxSatiety</t>
   </si>
   <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>Endurance</t>
+  </si>
+  <si>
+    <t>Dexterity</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>Will</t>
+  </si>
+  <si>
+    <t>Charisma</t>
+  </si>
+  <si>
+    <t>Agility</t>
+  </si>
+  <si>
+    <t>Luck</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>NextLevelEXP</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>MaxHPPlus</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>MaxMPPlus</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>CarryWeightPlus</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>MaxStaminaPlus</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>Satiety</t>
-  </si>
-  <si>
-    <t>Strength</t>
-  </si>
-  <si>
-    <t>Endurance</t>
-  </si>
-  <si>
-    <t>Dexterity</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>MaxSatietyPlus</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>StrengthPlus</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>EndurancePlus</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>DexterityPlus</t>
+    <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>Perception</t>
-  </si>
-  <si>
-    <t>Master</t>
-  </si>
-  <si>
-    <t>Will</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>PerceptionPlus</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>MasterPlu</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>WillPlus</t>
+    <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>Magical_power</t>
-  </si>
-  <si>
-    <t>Charisma</t>
-  </si>
-  <si>
-    <t>Agility</t>
-  </si>
-  <si>
-    <t>Luck</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Player</t>
-  </si>
-  <si>
-    <t>EXP</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>NextLevelEXP</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Magical_powerplus</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>CharismaPlus</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>AgilityPlus</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LuckPlus</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -120,7 +181,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -128,7 +189,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="游ゴシック Light"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="major"/>
@@ -137,7 +198,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -146,7 +207,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -155,7 +216,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -163,7 +224,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -171,7 +232,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -179,7 +240,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -187,7 +248,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -196,7 +257,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -205,7 +266,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -213,7 +274,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -222,7 +283,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -230,7 +291,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -239,7 +300,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -248,7 +309,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -256,14 +317,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -802,9 +863,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -837,9 +898,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1019,15 +1080,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:AN3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1041,152 +1102,242 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="V1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="X1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Z1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="AD1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AF1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AJ1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AL1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="AN1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>26</v>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1195,7 +1346,7 @@
         <v>100</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -1204,13 +1355,13 @@
         <v>100</v>
       </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>100</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
       <c r="J3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1219,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1240,21 +1391,66 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
+        <v>5</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>3</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>3</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>3</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>2</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>3</v>
+      </c>
+      <c r="AN3">
         <v>0</v>
       </c>
     </row>
